--- a/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoThucThuTheoLoaiTien.xlsx
+++ b/banhang24/Template/ExportExcel/Report/BaoCaoTaiChinh/Teamplate_BaoCaoThucThuTheoLoaiTien.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Tổng</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>BÁO CÁO THỰC THU THEO LOẠI TIỀN</t>
-  </si>
-  <si>
-    <t>Tổng cộng</t>
   </si>
 </sst>
 </file>
@@ -136,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -145,36 +142,30 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -481,246 +472,225 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L5" sqref="L5"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" style="10" customWidth="1"/>
-    <col min="2" max="2" width="29.140625" style="11" customWidth="1"/>
-    <col min="3" max="4" width="31.28515625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="37.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="29.140625" style="9" customWidth="1"/>
+    <col min="3" max="4" width="31.28515625" style="9" customWidth="1"/>
+    <col min="5" max="5" width="37.140625" style="9" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
       <c r="F1" s="2"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="A2" s="12"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="4" spans="1:6" s="3" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="8"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="8"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
+      <c r="A6" s="6"/>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="8"/>
-      <c r="B7" s="9"/>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
+      <c r="A7" s="6"/>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
+      <c r="A8" s="6"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
+      <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="8"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
+      <c r="A10" s="6"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="8"/>
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
+      <c r="A11" s="6"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="8"/>
-      <c r="B12" s="9"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
+      <c r="A12" s="6"/>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="8"/>
-      <c r="B13" s="9"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
+      <c r="A13" s="6"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="8"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
+      <c r="A14" s="6"/>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="8"/>
-      <c r="B15" s="9"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
+      <c r="A15" s="6"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="8"/>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="A16" s="6"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="7"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="8"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="7"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="6"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="8"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="6"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="8"/>
-      <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
+      <c r="A20" s="6"/>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="8"/>
-      <c r="B21" s="9"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
+      <c r="A21" s="6"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="9"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
+      <c r="A22" s="6"/>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
+      <c r="A23" s="6"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="8"/>
-      <c r="B24" s="9"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="A24" s="6"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="9"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="A25" s="6"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="8"/>
-      <c r="B26" s="9"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="A26" s="6"/>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="8"/>
-      <c r="B27" s="9"/>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="1:5" s="13" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="8"/>
-      <c r="B28" s="9"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" s="12">
-        <f>SUM(B$5:B28)</f>
-        <v>0</v>
-      </c>
-      <c r="C29" s="12">
-        <f>SUM(C$5:C28)</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="12">
-        <f>SUM(D$5:D28)</f>
-        <v>0</v>
-      </c>
-      <c r="E29" s="12">
-        <f>SUM(E$5:E28)</f>
-        <v>0</v>
-      </c>
+      <c r="A27" s="6"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6"/>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">
